--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/6_Amasya_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/6_Amasya_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D6D500A-3A33-47D5-81D1-2215FA8B3B77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{318C5928-FCE9-4011-837F-CB166D01D06B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{02267D57-B3D1-441D-8F8D-BDBF798EE758}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{225951D3-E203-4F98-A7E5-BFD035A28CF5}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -912,15 +912,15 @@
   </cellXfs>
   <cellStyles count="10">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{11292608-9C00-479A-B097-E38E42C1A25A}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{4781FFD1-4DCA-4B09-A84A-74F9EA2A50C6}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{05B6574C-EF23-4C2B-8929-4D129FF1A88C}"/>
-    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{EFEA3D2B-B011-408F-94CD-3526F62561D9}"/>
-    <cellStyle name="Normal 4" xfId="5" xr:uid="{B4128DE7-2539-4ED0-8354-BC2856633FF4}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A2CBDD3E-32C2-4AE0-AD23-0C4E1AEC0947}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E1855EB8-7877-4FA8-B7B6-57FB54374B18}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{2BFA696A-DF6F-471F-AE76-2074A2AB62AF}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{E0472B08-3ED5-455B-B96C-FDD94B9071D2}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{C9B8F6E2-AA23-42E1-9F48-8CC963F19E83}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{C8E15429-63DB-4BCE-9E99-C0D571AA546E}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{FCDBD9A4-04EB-4C8C-9FE5-36BA0D1C4BE3}"/>
+    <cellStyle name="Normal 3 2" xfId="4" xr:uid="{8F6AC3A3-2D24-4321-845F-6A54D005221E}"/>
+    <cellStyle name="Normal 4" xfId="5" xr:uid="{4BB95923-6E2A-4659-97EE-613FAB1F076D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{63AC7DCF-0FDB-4B7B-B6EF-5DE4092981C4}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E1BBF2AF-F638-49CC-98C5-4EB9C38C9099}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{6A239831-6554-4D90-BA15-14BC02C942E0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{6B28A0E6-4709-49FB-B227-E9368622C54F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1290,7 +1290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB07CE01-3C6F-403A-8B79-E2E5ED1094FE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{915ADFEF-7CA0-440A-89E6-E0073D285491}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2572,7 +2572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026BADC1-0D07-4D3F-A540-C32FA589CCCB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56BA269A-6054-43CF-A600-239425DCCC13}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3855,7 +3855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38949394-A596-4702-8315-805EF91EE967}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C398C5FD-8873-4E01-A531-DAE9A0A7DFCB}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5136,7 +5136,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7EF4C3-78EA-468F-8D17-7288010570D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4181B44C-2398-4795-9F84-0BD4E95BEF97}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6395,7 +6395,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E75A59-5115-404B-A472-EEA2AA45E1D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5554F1CE-D548-4202-98AE-9B3A6C1EB9BE}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7679,7 +7679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7829D1E1-93A2-44F6-ADF2-DDCBF09E3077}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C0C2C3-3B24-416B-AE11-88A7B9C8AEE5}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -8964,7 +8964,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62D3B528-3E25-417C-88BD-3E959E2C50DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD04C461-EAFC-43EC-AB64-734369BBD03A}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -10247,7 +10247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBD1148E-E1C5-4517-AFF7-116317B42F3B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8E80110-85A8-47BE-A354-A76EBBB6ACF8}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -11530,7 +11530,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1690071A-2AE8-41DE-B032-B6D4B47EAC14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A0B86D-AEF2-4DDC-95F7-4A4DD5294E59}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -12813,7 +12813,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72724CE6-5FE1-4322-A524-F8CEACD4A86F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A891E1D0-966B-4A0E-9C35-47FC4801BF34}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -14098,7 +14098,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA16BCE1-DB16-4DAC-8518-82B767112AB4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F387402-6B29-4EBE-9BC6-2E39F2C0A4CE}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15383,7 +15383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C0B4C49-B4ED-498E-BD99-D8D50D9F6A81}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A1DA375-4612-49B1-B381-5A0E1AF660CE}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
